--- a/biology/Biochimie/Récepteur_GABAA-rho/Récepteur_GABAA-rho.xlsx
+++ b/biology/Biochimie/Récepteur_GABAA-rho/Récepteur_GABAA-rho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_GABAA-rho</t>
+          <t>Récepteur_GABAA-rho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le récepteur GABAA-rho (anciennement nommé récepteur GABAC) est un récepteur de type GABAA constitué seulement de sous-unités rho (ρ). Ce type de récepteur forme une sous-classe des récepteurs GABAA. Les récepteurs GABAA, ceux de la sous-classe ρ inclus, sont des récepteurs ionotropes transmettant les effets de l'acide γ-aminobutyrique (GABA) qui est le neurotransmetteur inhibiteur majeur dans le cerveau. De la même manière que les récepteurs GABAA, les récepteurs GABAA-rho sont exprimés dans différentes régions du cerveau. Néanmoins, à l'inverse des autres récepteur GABAA, les récepteurs GABAA-rho sont fortement exprimés dans la rétine[1].
+Le récepteur GABAA-rho (anciennement nommé récepteur GABAC) est un récepteur de type GABAA constitué seulement de sous-unités rho (ρ). Ce type de récepteur forme une sous-classe des récepteurs GABAA. Les récepteurs GABAA, ceux de la sous-classe ρ inclus, sont des récepteurs ionotropes transmettant les effets de l'acide γ-aminobutyrique (GABA) qui est le neurotransmetteur inhibiteur majeur dans le cerveau. De la même manière que les récepteurs GABAA, les récepteurs GABAA-rho sont exprimés dans différentes régions du cerveau. Néanmoins, à l'inverse des autres récepteur GABAA, les récepteurs GABAA-rho sont fortement exprimés dans la rétine.
 </t>
         </is>
       </c>
